--- a/data/trans_bre/P21D_6_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Provincia-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.240294567161982</v>
+        <v>2.555611585881688</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,11 +610,9 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.085219523985674</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-4.461444734289668</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -624,11 +622,9 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6240363663219994</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>1.326914826001601</v>
-      </c>
+        <v>0.6273987974964453</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -645,7 +641,7 @@
         <v>4.329447706193021</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2.184072394080822</v>
+        <v>2.184072394080821</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +652,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2743319199195978</v>
+        <v>-0.1811915640356526</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.18836738742682</v>
+        <v>-0.3501686891963458</v>
       </c>
     </row>
     <row r="12">
@@ -670,7 +666,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.46599103255037</v>
+        <v>8.161367084392534</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -700,7 +696,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.85369790248724</v>
+        <v>-3.020320784426216</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -712,7 +708,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8366856076473849</v>
+        <v>0.8631945995919446</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -792,7 +788,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.939889324492587</v>
+        <v>2.883484309125303</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -824,7 +820,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7606726842257008</v>
+        <v>0.7315907617203753</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -836,7 +832,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.575073036004023</v>
+        <v>3.719530181638685</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -880,7 +876,7 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8489971317272681</v>
+        <v>0.6937827502740678</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
     </row>
@@ -896,10 +892,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.6836109194473502</v>
+        <v>0.6836109194473506</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>1.240502289050305</v>
+        <v>1.240502289050306</v>
       </c>
     </row>
     <row r="29">
@@ -910,10 +906,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03936224825385005</v>
+        <v>-0.001819667787980285</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.05931682152360329</v>
+        <v>-0.07686309162610212</v>
       </c>
     </row>
     <row r="30">
@@ -924,10 +920,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.273069630961189</v>
+        <v>1.273222809116945</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5.119718985803885</v>
+        <v>4.445862623522665</v>
       </c>
     </row>
     <row r="31">
